--- a/output/fit_clients/fit_round_40.xlsx
+++ b/output/fit_clients/fit_round_40.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9058101086.47982</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004464245856596581</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.439760025686349</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9332926570988714</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.439760025686349</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4669181008.686966</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005957813780424944</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
         <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.091482101086538</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8987564375727195</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.091482101086538</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5684270414.504563</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003206543014732075</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.076628184410869</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9644762861565706</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-4.076628184410869</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3656789114.829744</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.00484213150247974</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.957816444735889</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8110194047305336</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.957816444735889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>4869167286.945794</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002259986490473711</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.62120561438652</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8225813227231459</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.62120561438652</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>9037883720.220034</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001362221828159756</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.1573606426997604</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.478946575997406</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.3094235826079312</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-3.478946575997406</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7668481691.242277</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003522213293644143</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.028046877588678</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.953836552004703</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.028046877588678</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6542574678.135415</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004119904255234336</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.452105693974048</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9236681295073569</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-4.452105693974048</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4452242913.466443</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005220864316734109</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.088044977108224</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9278092554429473</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.088044977108224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4599435817.772866</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.00131760568516174</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.782188821527463</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7536225745886383</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.782188821527463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>5926973479.881021</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001960524733912858</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.21172529593632</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.003879371890539</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.21172529593632</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6280997308.792901</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004125964148662065</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.3966045504503722</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.934941798934617</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.761776481040362</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.934941798934617</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6493305068.281263</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003092167261826875</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.500829449592184</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8879008856717593</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.500829449592184</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6187645807.151575</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004873193678598431</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.227188040686781</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9384736327918473</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.227188040686781</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6773650127.31289</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005452006039852847</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.7757017881156428</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.364111117260616</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.035400613819089</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.364111117260616</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>7014980678.291285</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003139844668265999</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.03868898342866</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9549058601778688</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-4.03868898342866</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5299738817.179748</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.00107234771613923</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.3590963054707</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9820355540010097</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-6.3590963054707</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3360913944.253881</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001952468163991005</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.972695347357454</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8801130601412216</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.972695347357454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>3825547456.743249</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001416782037583503</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.713695436145832</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8238080771010335</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.713695436145832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7300608638.889373</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004650301793828093</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.132416511783855</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8348890416589346</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.132416511783855</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4233106391.310352</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004491162367676656</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
         <v>4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5938295563654435</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4.687855828955403</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8602951472343116</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-4.687855828955403</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6862942249.713285</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001540996523349037</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>12</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.659384759226228</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8355031767908186</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.659384759226228</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5513153492.932632</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003984872643526837</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.616923542446766</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9848959318010366</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.616923542446766</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6241242521.287311</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002719054764867399</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.570301162281679</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9217369465477367</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.570301162281679</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4434204265.045308</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.00101401995962916</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>11</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.668701564930663</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7893382666503718</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.668701564930663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8642929246.111446</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003675729290901892</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.141194014240349</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9145149578567953</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.141194014240349</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7842385808.021425</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.00535001807872969</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.536766796148604</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9061040362815602</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.536766796148604</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6515197772.575062</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001443738492764196</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.881732528792159</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9861889393003082</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.881732528792159</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6895602794.861599</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003195309532726849</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.165254598438733</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.886464525661721</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.165254598438733</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6038289179.976821</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002829293919379884</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
         <v>8</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.368402096890237</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9658021501877815</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.368402096890237</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3334420416.607931</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001339313629399589</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.797049112424007</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.937109103944976</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.797049112424007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5780560130.471811</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002253290366677769</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.604044701492749</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.83335492146696</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.604044701492749</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6843166608.228711</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004947441921523786</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.411957382856542</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8222532828441194</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-5.411957382856542</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5149384526.530597</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002063413383694811</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.503884169740594</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9294548056058727</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-3.503884169740594</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6100345304.920471</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002997010178353722</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.291714408695888</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.001083884901287</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.291714408695888</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4541565125.071602</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005209780339410303</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>10</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.139937147299176</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9872286042700639</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.139937147299176</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3094788568.389697</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004881265568565282</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>8</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.213287985048891</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8990387798847307</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.213287985048891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5436932145.765929</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002344294097398178</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.9155820573212433</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.48960574061208</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.079844837263808</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.48960574061208</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5747543324.527116</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003401086035778023</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>7</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.700272806157981</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9869660907051784</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.700272806157981</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>7310999396.302729</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001210856411724913</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>7</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.8891749297245858</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.530950268226799</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.143258562137068</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.530950268226799</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6807722062.798946</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005089089063971198</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.407746637697335</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9828214124420581</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.407746637697335</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6954881076.80475</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003212775361267486</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.629609857819964</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9228434496126416</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.629609857819964</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7417770424.20448</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001464036107713546</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>10</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.086743479183897</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.917580032515443</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.086743479183897</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5519961739.767759</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001326058293522014</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>8</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.577919615189651</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9433515157189427</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.577919615189651</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9793090621.804377</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003789448163646195</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.32023200828498</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8207085310003991</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.32023200828498</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>10179015535.68209</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002852138302514125</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>7</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.427119998239356</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.901587704618067</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.427119998239356</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6947143633.663031</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002383522085858956</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>4.632083876577091</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9657966318425456</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-4.632083876577091</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4273868021.28035</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004925901828469527</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>9</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.8826412969758564</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.24926023116953</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.093493331041343</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.24926023116953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6109595320.720894</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002580585307904275</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.337744086761205</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.032442699986107</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.337744086761205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4406787123.49175</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.00469252267277226</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>10</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.034357511559479</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9308305551564269</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.034357511559479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7727214801.033729</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001350254323849172</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.227736550000398</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8403683922220503</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.227736550000398</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6519877181.039323</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002996062171352968</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.310159068578646</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9103192112411862</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.310159068578646</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6359619078.293104</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004789169262699294</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.757080921301852</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.809760113235799</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.757080921301852</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8361425957.160995</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002780561388661095</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>9</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.108228638070165</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8930610084251414</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.108228638070165</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4340036320.516271</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002788542754018853</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.545672080620982</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.911717990320916</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.545672080620982</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8381015748.985552</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003295010659687968</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.733997430981158</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8482219197434142</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-3.733997430981158</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4520590152.006291</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002812921759595747</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>12</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.575973699181733</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7733400928431251</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.575973699181733</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5760118353.079502</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.00457152704658105</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.8772774638430056</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.928913944148263</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.079371053690581</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.928913944148263</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5223750623.846765</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003147838026331165</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.173183294374599</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8293670658336623</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.173183294374599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5809624978.919187</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005934630530636355</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>10</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.638448867767339</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9330206804441431</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.638448867767339</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4738790487.142576</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002762200924120282</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>9</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.6984165099539</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8509293423921809</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.6984165099539</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>5487934174.899964</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005053362148617176</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>10</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.2853602956485184</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.92879881444916</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.4918622863548792</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.92879881444916</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3828772175.315291</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004572060019653098</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.078917455026736</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.914509130033637</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.078917455026736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7032580574.454193</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004596210513442292</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.570049486147166</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.036883749871333</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-4.570049486147166</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5501514739.952293</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002918355863407378</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.331406499428059</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8956269458603734</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.331406499428059</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6985497537.962112</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004680890216919442</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.7336411102741334</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>5.352936618054271</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.024299590079505</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-5.352936618054271</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8687802845.401615</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002848209777269264</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
         <v>8</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676648</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.161865409344591</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7396069181830989</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.161865409344591</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5382839064.409982</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.000780332693521623</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.849380560318488</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9715936135714646</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.849380560318488</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7084282521.906149</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003931892672874469</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.8638419841619936</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.936152144833649</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.104093295400756</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.936152144833649</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>5103956107.570767</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002813113862038765</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.729611356152823</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8062786576807625</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.729611356152823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5310635197.417337</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002426654414744581</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
         <v>8</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.3846336913353705</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.292016998220042</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.7837663692071182</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-3.292016998220042</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7019379146.96527</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001446432483654305</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>6</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.757885709518048</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.957841693459447</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.757885709518048</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5218785663.68973</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003311701017060224</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
         <v>8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.231262637427983</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8631330592790194</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.231262637427983</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6341514509.89175</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.002811448008316595</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>10</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.049696334070206</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.836110486565017</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.049696334070206</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>4967155546.819994</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002122011252100487</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>9</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.206368253885103</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9145149578567953</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.206368253885103</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6476434895.153313</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005384117723064464</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.304468140282871</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.014494612721986</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.304468140282871</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7554415686.784971</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004438602244876038</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>9</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.9983609985010453</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.1538035723901</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.216258894430145</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-3.1538035723901</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>5738323421.268194</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002610802406192084</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>5</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.042614417319812</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9644762861565706</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.042614417319812</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7644590929.482799</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003331491992006486</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>9</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.414365081876228</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9602400899462838</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.414365081876228</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5083232403.197379</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004234597350535023</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>4.5102341106438</v>
-      </c>
-      <c r="M81" t="n">
-        <v>-0.3162277660168379</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-4.5102341106438</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7073854626.313088</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004361090575617711</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>6</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.980009599868249</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3.855615887888462</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.212545556094709</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-3.855615887888462</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7617876137.640827</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003300870843977997</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>15</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.385960804937828</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7495562304277773</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.385960804937828</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7424391590.863261</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004257603374223846</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>9</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.090396333145971</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9463231953917498</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.090396333145971</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4834905525.123539</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003760009088480233</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>11</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.3273091615815181</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.777660297239619</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.5398549205342511</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.777660297239619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>7689626956.420084</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002763821604420526</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.100688365911991</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9468650572715352</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.100688365911991</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4544872637.575176</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001049744310194329</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>14</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.09453971861259679</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.520689305175478</v>
-      </c>
-      <c r="M87" t="n">
-        <v>-0.4051549852449947</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.520689305175478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>9278398164.910641</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004333185873686792</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>10</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.899980916440225</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8050185707166099</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.899980916440225</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7957465823.081363</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003639165876094621</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.072112891169669</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.90526335593079</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.072112891169669</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5153435008.235253</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003324650545562139</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>9</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.046588079818547</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9167440623573442</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.046588079818547</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5820836158.275467</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003403596898927377</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.132132374116972</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8539129590040909</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-5.132132374116972</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4053963193.979404</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003501567491070787</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.368713789970897</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.025257897942081</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.368713789970897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7364550616.010379</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001830986054717485</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.527242507623985</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9349285560795144</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.527242507623985</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6712185096.957204</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001343535189828489</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>5.317607230562096</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.044236723686915</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-5.317607230562096</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7624882105.794613</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002057737334423807</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>6</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.9009108023375556</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.710512263726144</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.157363954558563</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.710512263726144</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7753856764.931897</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002345825244638768</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>12</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.09078237193745355</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.774922743149198</v>
-      </c>
-      <c r="M96" t="n">
-        <v>-0.3706754264944874</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.774922743149198</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6722635769.986885</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004051332821634081</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.651088800089431</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.193545468340213</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.651088800089431</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8803936239.696335</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.005072125875182786</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.593198865829552</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8777848663986973</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.593198865829552</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2951332897.841082</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005574849815098161</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>10</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3.015217545583728</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8789527659489618</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-3.015217545583728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4560939797.40996</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002603765766462874</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.226916511259823</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8081782935953445</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.226916511259823</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5606002257.734559</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001766111149862823</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>9</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6073781009877173</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.401830587491234</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8757525088985501</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.401830587491234</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_40.xlsx
+++ b/output/fit_clients/fit_round_40.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9058101086.47982</v>
+        <v>1936817154.595803</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004464245856596581</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>11</v>
+        <v>0.08974061455390878</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04390605700863879</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>968408564.2872765</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2435595706.205809</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1521386638432108</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03215095649364631</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4669181008.686966</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.005957813780424944</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+      <c r="J3" t="n">
+        <v>1217797960.469676</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5684270414.504563</v>
+        <v>3982054485.046761</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003206543014732075</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+        <v>0.1537441107608588</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03633068914368838</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1991027255.267261</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3656789114.829744</v>
+        <v>2843074667.561437</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00484213150247974</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.07224954422720133</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04243259506434241</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1421537413.85534</v>
       </c>
     </row>
     <row r="6">
@@ -595,19 +629,25 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>4869167286.945794</v>
+        <v>2740571371.733993</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002259986490473711</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+        <v>0.09313273843946629</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04783763582229179</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1370285635.153991</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>9037883720.220034</v>
+        <v>2479973143.638743</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001362221828159756</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>11</v>
+        <v>0.0762020505257968</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03623380091378484</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1239986586.616629</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7668481691.242277</v>
+        <v>3299125948.311434</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003522213293644143</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+        <v>0.1722225417123143</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02446893302588875</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1649563062.081028</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6542574678.135415</v>
+        <v>1668120365.163319</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004119904255234336</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>13</v>
+        <v>0.1448769997808402</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03308019034598135</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>834060255.0910844</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4452242913.466443</v>
+        <v>4370954702.026294</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005220864316734109</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1714074693881944</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04623418419158529</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2185477401.460021</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4599435817.772866</v>
+        <v>2588731420.68905</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00131760568516174</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1158636862849074</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03095460853544145</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1294365624.370961</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>5926973479.881021</v>
+        <v>2682270415.492318</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001960524733912858</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>11</v>
+        <v>0.1403923089009226</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03949879056725954</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1341135196.502032</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6280997308.792901</v>
+        <v>4263249417.650229</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004125964148662065</v>
-      </c>
-      <c r="G13" t="b">
+        <v>0.1016030021156657</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02034745119757683</v>
+      </c>
+      <c r="H13" t="b">
         <v>1</v>
       </c>
-      <c r="H13" t="n">
-        <v>5</v>
+      <c r="I13" t="n">
+        <v>13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2131624750.228991</v>
       </c>
     </row>
     <row r="14">
@@ -819,19 +901,25 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6493305068.281263</v>
+        <v>3891227282.637799</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003092167261826875</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
+        <v>0.1861188458042818</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02914415956610196</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1945613611.070955</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6187645807.151575</v>
+        <v>1204221152.67722</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004873193678598431</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>12</v>
+        <v>0.07429692783169171</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04669148022940026</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>602110594.6351041</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6773650127.31289</v>
+        <v>1865905150.720493</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005452006039852847</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>13</v>
+        <v>0.1052560891348996</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04748642373850118</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>932952662.6772829</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>7014980678.291285</v>
+        <v>4203207526.789048</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003139844668265999</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
+        <v>0.1435421203638038</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05190192640010495</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2101603787.749823</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5299738817.179748</v>
+        <v>2960476043.862586</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00107234771613923</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>11</v>
+        <v>0.1445889384561507</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02844619376698031</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1480238054.870414</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3360913944.253881</v>
+        <v>1222339693.754298</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001952468163991005</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1733366069880994</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01934909745888526</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>611169930.0773699</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>3825547456.743249</v>
+        <v>1879788860.237895</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001416782037583503</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1413000476651021</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03076866587383223</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>939894469.1090167</v>
       </c>
     </row>
     <row r="21">
@@ -1015,19 +1139,25 @@
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7300608638.889373</v>
+        <v>2634165450.78356</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004650301793828093</v>
-      </c>
-      <c r="G21" t="b">
+        <v>0.09350375700593079</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03154071844521575</v>
+      </c>
+      <c r="H21" t="b">
         <v>1</v>
       </c>
-      <c r="H21" t="n">
-        <v>7</v>
+      <c r="I21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1317082700.559978</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4233106391.310352</v>
+        <v>2912310158.685145</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004491162367676656</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+        <v>0.0994999570513999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05272833892835427</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1456155145.978748</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6862942249.713285</v>
+        <v>1421902457.886098</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001540996523349037</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
+        <v>0.1581679617446703</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05381532681465619</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>710951227.867579</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5513153492.932632</v>
+        <v>3772483863.93168</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003984872643526837</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
+        <v>0.1015565977164936</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03139915439579738</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>11</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1886241915.074682</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6241242521.287311</v>
+        <v>1190142100.545637</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002719054764867399</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
+        <v>0.1007109866100491</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02601241567922215</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>595071070.3477798</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4434204265.045308</v>
+        <v>1196164701.546607</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00101401995962916</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1161014803420183</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03322026674556151</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>598082370.6809058</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8642929246.111446</v>
+        <v>4418253168.21649</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003675729290901892</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>12</v>
+        <v>0.1472222011470559</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02547618915127678</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2209126573.294739</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7842385808.021425</v>
+        <v>3486558079.426494</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00535001807872969</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
+        <v>0.1435629379334704</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04975182655307982</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1743279093.033539</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6515197772.575062</v>
+        <v>4499669370.04674</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001443738492764196</v>
-      </c>
-      <c r="G29" t="b">
+        <v>0.1110888114787146</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0466623016612648</v>
+      </c>
+      <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="H29" t="n">
-        <v>11</v>
+      <c r="I29" t="n">
+        <v>18</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2249834667.088248</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6895602794.861599</v>
+        <v>2073950422.900608</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003195309532726849</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>15</v>
+        <v>0.09956828358738071</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02613048670728342</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1036975257.205768</v>
       </c>
     </row>
     <row r="31">
@@ -1295,19 +1479,25 @@
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6038289179.976821</v>
+        <v>1102288647.81074</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002829293919379884</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
+        <v>0.08152964718439687</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04169981409336206</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>551144298.1973794</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3334420416.607931</v>
+        <v>1269433880.732089</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001339313629399589</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07671155253419412</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03813225806326759</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>634716960.8175502</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5780560130.471811</v>
+        <v>2635050675.802328</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002253290366677769</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
+        <v>0.1947247449105312</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05626729218033331</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1317525364.448066</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6843166608.228711</v>
+        <v>1496043772.942038</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004947441921523786</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>12</v>
+        <v>0.102386347299711</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02457385771503784</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>748021842.8247563</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5149384526.530597</v>
+        <v>1020415467.328457</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002063413383694811</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
+        <v>0.1173154007839249</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02932697195577047</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>510207747.6152766</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6100345304.920471</v>
+        <v>2198192968.751731</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002997010178353722</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>11</v>
+        <v>0.1643768444172021</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02163934619998354</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1099096530.373581</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4541565125.071602</v>
+        <v>1979853463.796094</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005209780339410303</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.1108852950557241</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03759121783008836</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>11</v>
+      </c>
+      <c r="J37" t="n">
+        <v>989926756.2354121</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3094788568.389697</v>
+        <v>2037051117.357051</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004881265568565282</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.09393093466760476</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03124744537842424</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1018525531.927686</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5436932145.765929</v>
+        <v>1602995811.893214</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002344294097398178</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
+        <v>0.1480602788765607</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02639543331362901</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>801497960.593456</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5747543324.527116</v>
+        <v>1643349913.840148</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003401086035778023</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
+        <v>0.1025139445162758</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.03894922802634451</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>821674887.0317544</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>7310999396.302729</v>
+        <v>1876985915.184409</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001210856411724913</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>11</v>
+        <v>0.1536309123901377</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03063299842647009</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>12</v>
+      </c>
+      <c r="J41" t="n">
+        <v>938493043.5987724</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6807722062.798946</v>
+        <v>2723193451.511128</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005089089063971198</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>10</v>
+        <v>0.08796685046113295</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03770001352427789</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>14</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1361596666.908686</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6954881076.80475</v>
+        <v>2506951888.977602</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003212775361267486</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
+        <v>0.1419128634937089</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01618988078630801</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>13</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1253475992.287826</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7417770424.20448</v>
+        <v>1750573906.452749</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001464036107713546</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>12</v>
+        <v>0.09150992873968827</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02318381453968436</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>875287009.6490203</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5519961739.767759</v>
+        <v>2330610209.640093</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001326058293522014</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1201941823161156</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04473931161011747</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1165305128.821786</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9793090621.804377</v>
+        <v>3919084400.38552</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003789448163646195</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>6</v>
+        <v>0.1366330162544718</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04193705720242895</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>14</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1959542164.933875</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>10179015535.68209</v>
+        <v>3444900569.735002</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002852138302514125</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
+        <v>0.1748944176197961</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04385347167140158</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>11</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1722450252.376509</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6947143633.663031</v>
+        <v>3574571830.583788</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002383522085858956</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>7</v>
+        <v>0.08378070130956801</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02370781019475246</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>14</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1787285974.220462</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4273868021.28035</v>
+        <v>1480762745.20848</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004925901828469527</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1811226020116808</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03950099325108706</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>740381407.4602643</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6109595320.720894</v>
+        <v>2851566104.021331</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002580585307904275</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>11</v>
+        <v>0.1731796041190931</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0337060236063855</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>13</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1425783122.260249</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4406787123.49175</v>
+        <v>1144902674.901813</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00469252267277226</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.133985270582959</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04608762349324215</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>572451397.7787937</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7727214801.033729</v>
+        <v>4433745068.123063</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001350254323849172</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>10</v>
+        <v>0.1141867253847363</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04681522885581785</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>16</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2216872564.863545</v>
       </c>
     </row>
     <row r="53">
@@ -1911,19 +2227,25 @@
         <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6519877181.039323</v>
+        <v>2783810233.439156</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002996062171352968</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>7</v>
+        <v>0.1526172839252808</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02943097831827141</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1391905163.939821</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6359619078.293104</v>
+        <v>3721293260.385769</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004789169262699294</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>10</v>
+        <v>0.1565481051887827</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.05205543382323863</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>13</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1860646672.224536</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8361425957.160995</v>
+        <v>3951143494.094896</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002780561388661095</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>13</v>
+        <v>0.2150033073687284</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02967549552636776</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>10</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1975571719.672426</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4340036320.516271</v>
+        <v>1167943694.062494</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002788542754018853</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>5</v>
+        <v>0.1591756243406884</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05239421480810095</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>583971938.2291653</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8381015748.985552</v>
+        <v>3983256062.651509</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003295010659687968</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>9</v>
+        <v>0.1697338753111461</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02216884213562586</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>13</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1991628118.139654</v>
       </c>
     </row>
     <row r="58">
@@ -2051,19 +2397,25 @@
         <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4520590152.006291</v>
+        <v>1176976112.763922</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002812921759595747</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>9</v>
+        <v>0.1451530383710715</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02704581675230558</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>588488116.7971855</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5760118353.079502</v>
+        <v>3305123025.226528</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00457152704658105</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
+        <v>0.1170461910563128</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0429415242284106</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1652561521.900845</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5223750623.846765</v>
+        <v>3515906418.184571</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003147838026331165</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1959526946358887</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02487663074727341</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>12</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1757953333.342621</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5809624978.919187</v>
+        <v>2539164887.408388</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005934630530636355</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>9</v>
+        <v>0.1392404642232917</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02162660955100629</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1269582467.470422</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4738790487.142576</v>
+        <v>1631451647.355268</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002762200924120282</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>8</v>
+        <v>0.1540631863725038</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03634548501473597</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>815725826.2744426</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5487934174.899964</v>
+        <v>4996716050.999483</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005053362148617176</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>10</v>
+        <v>0.09113392011486822</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03718605978581913</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>11</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2498358043.241833</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3828772175.315291</v>
+        <v>3869616703.928818</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004572060019653098</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1587130189416668</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0305484453127268</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>12</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1934808378.497235</v>
       </c>
     </row>
     <row r="65">
@@ -2247,19 +2635,25 @@
         <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7032580574.454193</v>
+        <v>5650772326.944165</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004596210513442292</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>10</v>
+        <v>0.1540733442557107</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0196332494282963</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>14</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2825386083.421025</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5501514739.952293</v>
+        <v>4802346824.830951</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002918355863407378</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>7</v>
+        <v>0.1425260376774722</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0471281080255325</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>11</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2401173428.81478</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6985497537.962112</v>
+        <v>2619419331.323818</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004680890216919442</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
+        <v>0.06615416553777749</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03240617947146252</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>13</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1309709715.997061</v>
       </c>
     </row>
     <row r="68">
@@ -2331,19 +2737,25 @@
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8687802845.401615</v>
+        <v>5282765730.855742</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002848209777269264</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>8</v>
+        <v>0.1413356848703647</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04109542316458502</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>13</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2641382938.778274</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5382839064.409982</v>
+        <v>2256827681.628061</v>
       </c>
       <c r="F69" t="n">
-        <v>0.000780332693521623</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>7</v>
+        <v>0.1546998005261412</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05249599261171865</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1128413878.81096</v>
       </c>
     </row>
     <row r="70">
@@ -2387,19 +2805,25 @@
         <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7084282521.906149</v>
+        <v>2486877052.836478</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003931892672874469</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>10</v>
+        <v>0.1019975168441424</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03738347652479344</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>11</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1243438469.898156</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5103956107.570767</v>
+        <v>5227940949.104681</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002813113862038765</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1518867688551498</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02787483992115956</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>14</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2613970597.097864</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5310635197.417337</v>
+        <v>1820515104.308481</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002426654414744581</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>8</v>
+        <v>0.06749219860622201</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04576938534088861</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>910257527.2858293</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7019379146.96527</v>
+        <v>3557091615.901687</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001446432483654305</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>10</v>
+        <v>0.1037372757004429</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03562519768994831</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>15</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1778545752.788188</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5218785663.68973</v>
+        <v>3486878958.947839</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003311701017060224</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>8</v>
+        <v>0.1444547872944143</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03244396361204421</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>14</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1743439502.648475</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6341514509.89175</v>
+        <v>2146314905.902246</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002811448008316595</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>7</v>
+        <v>0.1289071813755834</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03390908449005117</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1073157403.209768</v>
       </c>
     </row>
     <row r="76">
@@ -2555,19 +3009,25 @@
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4967155546.819994</v>
+        <v>5133569762.949282</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002122011252100487</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.08473006444209913</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0301155604524811</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2566784913.541765</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6476434895.153313</v>
+        <v>1853485881.537835</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005384117723064464</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>13</v>
+        <v>0.1368382636985477</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02555582433567297</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>926742980.5142233</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7554415686.784971</v>
+        <v>2924940147.279303</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004438602244876038</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>8</v>
+        <v>0.1243526882257101</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05224951579746553</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>14</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1462470116.223565</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>5738323421.268194</v>
+        <v>1276778799.991515</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002610802406192084</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>8</v>
+        <v>0.1615399240078982</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03452158486764473</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>638389395.0229098</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7644590929.482799</v>
+        <v>3672697387.71323</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003331491992006486</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>13</v>
+        <v>0.1116297099714419</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03517750932439791</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>8</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1836348676.909991</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5083232403.197379</v>
+        <v>4805944201.636143</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004234597350535023</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>7</v>
+        <v>0.1168604750869305</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02469592061693995</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>9</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2402972093.835005</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7073854626.313088</v>
+        <v>4056804886.69954</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004361090575617711</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>7</v>
+        <v>0.1659243705698461</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02146397026558683</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>15</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2028402479.818021</v>
       </c>
     </row>
     <row r="83">
@@ -2751,19 +3247,25 @@
         <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7617876137.640827</v>
+        <v>1758796571.504994</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003300870843977997</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>12</v>
+        <v>0.1020029451099653</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03477457399867952</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>879398240.8776896</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7424391590.863261</v>
+        <v>2140531836.754654</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004257603374223846</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>11</v>
+        <v>0.09804775956239166</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04048382488121944</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1070265902.64086</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4834905525.123539</v>
+        <v>3564525426.367369</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003760009088480233</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1444227578444081</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03633348426278921</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>14</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1782262835.47185</v>
       </c>
     </row>
     <row r="86">
@@ -2835,19 +3349,25 @@
         <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>7689626956.420084</v>
+        <v>2623147147.688967</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002763821604420526</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>14</v>
+        <v>0.1479882511374691</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01996059569135909</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1311573687.928272</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4544872637.575176</v>
+        <v>1401278747.587709</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001049744310194329</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1847773717011174</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03442864274125291</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>700639480.8338923</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>9278398164.910641</v>
+        <v>2396400994.928319</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004333185873686792</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>9</v>
+        <v>0.1078056947229711</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02784542955935563</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>14</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1198200468.10702</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7957465823.081363</v>
+        <v>3225996630.128981</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003639165876094621</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>9</v>
+        <v>0.1547231236803669</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02884508481481364</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1612998336.407293</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5153435008.235253</v>
+        <v>1583279831.558723</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003324650545562139</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>7</v>
+        <v>0.127123047362472</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04844000518731272</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>791639909.585613</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5820836158.275467</v>
+        <v>1641698838.165203</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003403596898927377</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>11</v>
+        <v>0.1743092739390831</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.06074042311039084</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>820849438.9496356</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4053963193.979404</v>
+        <v>2970269214.620383</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003501567491070787</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.09589496972865737</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03975527810345439</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1485134626.642795</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7364550616.010379</v>
+        <v>3779208725.827438</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001830986054717485</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>14</v>
+        <v>0.1280701836425985</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0355505839145433</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>12</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1889604377.656432</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6712185096.957204</v>
+        <v>2030524230.791651</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001343535189828489</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>14</v>
+        <v>0.1321079058084129</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03765614803644025</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1015262117.567466</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7624882105.794613</v>
+        <v>3044801815.490544</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002057737334423807</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
+        <v>0.1141317672458593</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04166004914796667</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>10</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1522400904.081528</v>
       </c>
     </row>
     <row r="96">
@@ -3115,19 +3689,25 @@
         <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7753856764.931897</v>
+        <v>2112866323.744965</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002345825244638768</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>10</v>
+        <v>0.1017108851225664</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03630046573582221</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1056433136.649348</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6722635769.986885</v>
+        <v>4834279283.176517</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004051332821634081</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>10</v>
+        <v>0.1708474905410012</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02388840169411217</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>13</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2417139764.891448</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8803936239.696335</v>
+        <v>2696260359.099329</v>
       </c>
       <c r="F98" t="n">
-        <v>0.005072125875182786</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>15</v>
+        <v>0.09755729297683464</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02128825323828129</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>10</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1348130143.491075</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2951332897.841082</v>
+        <v>2095337061.674352</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005574849815098161</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1482038821901764</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02975160535715847</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>12</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1047668450.956703</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4560939797.40996</v>
+        <v>3400166398.874102</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002603765766462874</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>3</v>
+        <v>0.147199424048346</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02186038907532926</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>12</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1700083222.07067</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5606002257.734559</v>
+        <v>2236355362.969512</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001766111149862823</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>13</v>
+        <v>0.2048978892585638</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03644291813257584</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>17</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1118177669.441599</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_40.xlsx
+++ b/output/fit_clients/fit_round_40.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1936817154.595803</v>
+        <v>1765445453.95417</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08974061455390878</v>
+        <v>0.06941838887443964</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04390605700863879</v>
+        <v>0.04528499813254634</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>968408564.2872765</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2435595706.205809</v>
+        <v>1814412997.465645</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1521386638432108</v>
+        <v>0.1738749338190468</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03215095649364631</v>
+        <v>0.04235307079668886</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1217797960.469676</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3982054485.046761</v>
+        <v>3590817767.455478</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1537441107608588</v>
+        <v>0.1011012650016999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03633068914368838</v>
+        <v>0.03250463146236189</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1991027255.267261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2843074667.561437</v>
+        <v>3552624224.590661</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07224954422720133</v>
+        <v>0.09807713309518055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04243259506434241</v>
+        <v>0.0501500930458941</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1421537413.85534</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2740571371.733993</v>
+        <v>2135242067.204421</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09313273843946629</v>
+        <v>0.118456384957291</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04783763582229179</v>
+        <v>0.04840913113005212</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1370285635.153991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2479973143.638743</v>
+        <v>2015845917.80516</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0762020505257968</v>
+        <v>0.08947573629027823</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03623380091378484</v>
+        <v>0.03915008385207863</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1239986586.616629</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3299125948.311434</v>
+        <v>3742124189.328931</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1722225417123143</v>
+        <v>0.1862102794625697</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02446893302588875</v>
+        <v>0.02279588935269508</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1649563062.081028</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1668120365.163319</v>
+        <v>2070000145.566067</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1448769997808402</v>
+        <v>0.1912295512249766</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03308019034598135</v>
+        <v>0.03626028347704977</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>834060255.0910844</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4370954702.026294</v>
+        <v>4193925715.127349</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1714074693881944</v>
+        <v>0.1569192226109772</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04623418419158529</v>
+        <v>0.05439873533647197</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>17</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2185477401.460021</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2588731420.68905</v>
+        <v>3596140407.00379</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1158636862849074</v>
+        <v>0.1737389416903154</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03095460853544145</v>
+        <v>0.03337725148688749</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1294365624.370961</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2682270415.492318</v>
+        <v>3171884533.837555</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1403923089009226</v>
+        <v>0.122620062208189</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03949879056725954</v>
+        <v>0.05007086634905416</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1341135196.502032</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4263249417.650229</v>
+        <v>4548919040.23146</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1016030021156657</v>
+        <v>0.0644095868676316</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02034745119757683</v>
+        <v>0.02345438090735819</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2131624750.228991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3891227282.637799</v>
+        <v>2449175430.537133</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1861188458042818</v>
+        <v>0.1525166765247165</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02914415956610196</v>
+        <v>0.04338718752900972</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1945613611.070955</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1204221152.67722</v>
+        <v>1766178355.399327</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07429692783169171</v>
+        <v>0.106084180483913</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04669148022940026</v>
+        <v>0.04650916469487452</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>602110594.6351041</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1865905150.720493</v>
+        <v>2413733162.663835</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1052560891348996</v>
+        <v>0.1044862860972678</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04748642373850118</v>
+        <v>0.03616791689556478</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>932952662.6772829</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4203207526.789048</v>
+        <v>4820626844.076486</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1435421203638038</v>
+        <v>0.1555751680883098</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05190192640010495</v>
+        <v>0.04526390336894418</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2101603787.749823</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2960476043.862586</v>
+        <v>4021301474.805071</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1445889384561507</v>
+        <v>0.1421905257632261</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02844619376698031</v>
+        <v>0.02079185932628687</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>13</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1480238054.870414</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1222339693.754298</v>
+        <v>1199872578.133324</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1733366069880994</v>
+        <v>0.1748685616461355</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01934909745888526</v>
+        <v>0.02062057786928618</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>611169930.0773699</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1879788860.237895</v>
+        <v>2088401212.519643</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1413000476651021</v>
+        <v>0.1503661550956138</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03076866587383223</v>
+        <v>0.02943047539132794</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>939894469.1090167</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2634165450.78356</v>
+        <v>1898782414.221864</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09350375700593079</v>
+        <v>0.06206125032219551</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03154071844521575</v>
+        <v>0.03066172299228201</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1317082700.559978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2912310158.685145</v>
+        <v>2528348652.083549</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0994999570513999</v>
+        <v>0.1314566341822015</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05272833892835427</v>
+        <v>0.03897951555838813</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1456155145.978748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1421902457.886098</v>
+        <v>1360924523.160002</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1581679617446703</v>
+        <v>0.186080455536709</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05381532681465619</v>
+        <v>0.04565650357286325</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>710951227.867579</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3772483863.93168</v>
+        <v>3905671725.428233</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1015565977164936</v>
+        <v>0.1458119156795633</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03139915439579738</v>
+        <v>0.02606715597447039</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1886241915.074682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1190142100.545637</v>
+        <v>1116307690.160825</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1007109866100491</v>
+        <v>0.1181095682446115</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02601241567922215</v>
+        <v>0.03060802356868692</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>595071070.3477798</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1196164701.546607</v>
+        <v>1347405211.891037</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1161014803420183</v>
+        <v>0.07699586272748664</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03322026674556151</v>
+        <v>0.02373514855354588</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>598082370.6809058</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4418253168.21649</v>
+        <v>4566446342.082877</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1472222011470559</v>
+        <v>0.1544049845132879</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02547618915127678</v>
+        <v>0.01888823305038926</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2209126573.294739</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3486558079.426494</v>
+        <v>3896742641.189229</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1435629379334704</v>
+        <v>0.1322356320844234</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04975182655307982</v>
+        <v>0.03663283511548861</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>14</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1743279093.033539</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4499669370.04674</v>
+        <v>4204488923.216785</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1110888114787146</v>
+        <v>0.09985182978662147</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0466623016612648</v>
+        <v>0.0340919554257447</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>18</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2249834667.088248</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2073950422.900608</v>
+        <v>1938846377.427053</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09956828358738071</v>
+        <v>0.09297726427175819</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02613048670728342</v>
+        <v>0.02494174750161554</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1036975257.205768</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1102288647.81074</v>
+        <v>1127697332.599297</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08152964718439687</v>
+        <v>0.0995148821236474</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04169981409336206</v>
+        <v>0.03384631161256114</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>551144298.1973794</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1269433880.732089</v>
+        <v>1264811774.81917</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07671155253419412</v>
+        <v>0.1002308783022233</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03813225806326759</v>
+        <v>0.03000613155150926</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>634716960.8175502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2635050675.802328</v>
+        <v>2383458102.710773</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1947247449105312</v>
+        <v>0.2055694169227722</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05626729218033331</v>
+        <v>0.04260339311020834</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1317525364.448066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1496043772.942038</v>
+        <v>1405017710.129909</v>
       </c>
       <c r="F34" t="n">
-        <v>0.102386347299711</v>
+        <v>0.0894924606171886</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02457385771503784</v>
+        <v>0.02402537829745406</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>748021842.8247563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1020415467.328457</v>
+        <v>943790642.8220595</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1173154007839249</v>
+        <v>0.1020851818898899</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02932697195577047</v>
+        <v>0.02933581043440632</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>510207747.6152766</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2198192968.751731</v>
+        <v>2122583032.357351</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1643768444172021</v>
+        <v>0.1481586162410214</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02163934619998354</v>
+        <v>0.02218416674181937</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1099096530.373581</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1979853463.796094</v>
+        <v>2656171945.391304</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1108852950557241</v>
+        <v>0.10955319656757</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03759121783008836</v>
+        <v>0.03703428713326358</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11</v>
-      </c>
-      <c r="J37" t="n">
-        <v>989926756.2354121</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2037051117.357051</v>
+        <v>1461676148.959481</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09393093466760476</v>
+        <v>0.116388296293043</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03124744537842424</v>
+        <v>0.03602718572622829</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1018525531.927686</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1602995811.893214</v>
+        <v>1609479030.552137</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1480602788765607</v>
+        <v>0.1317406473481756</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02639543331362901</v>
+        <v>0.02514173516794191</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>801497960.593456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1643349913.840148</v>
+        <v>1199419949.511517</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1025139445162758</v>
+        <v>0.1303043593486941</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03894922802634451</v>
+        <v>0.04471829606326242</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>821674887.0317544</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1876985915.184409</v>
+        <v>2682066932.887328</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1536309123901377</v>
+        <v>0.1473254512666793</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03063299842647009</v>
+        <v>0.04546614989625317</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>12</v>
-      </c>
-      <c r="J41" t="n">
-        <v>938493043.5987724</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2723193451.511128</v>
+        <v>3925944642.920017</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08796685046113295</v>
+        <v>0.08343697520316169</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03770001352427789</v>
+        <v>0.03186703108980259</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1361596666.908686</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2506951888.977602</v>
+        <v>3007218375.804634</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1419128634937089</v>
+        <v>0.1689043477619269</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01618988078630801</v>
+        <v>0.02295990215072937</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1253475992.287826</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1750573906.452749</v>
+        <v>2095445807.776322</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09150992873968827</v>
+        <v>0.09145417304876684</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02318381453968436</v>
+        <v>0.02581989884391583</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>875287009.6490203</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2330610209.640093</v>
+        <v>2320828697.185856</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1201941823161156</v>
+        <v>0.1197277918455751</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04473931161011747</v>
+        <v>0.04344264219774684</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1165305128.821786</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3919084400.38552</v>
+        <v>3554969179.699444</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1366330162544718</v>
+        <v>0.1408157052266284</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04193705720242895</v>
+        <v>0.0508842880822533</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>14</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1959542164.933875</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3444900569.735002</v>
+        <v>4421180650.177312</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1748944176197961</v>
+        <v>0.1717627898520506</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04385347167140158</v>
+        <v>0.04054345716469458</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>11</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1722450252.376509</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3574571830.583788</v>
+        <v>3962174324.675722</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08378070130956801</v>
+        <v>0.07931416746197036</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02370781019475246</v>
+        <v>0.03519526231115785</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>14</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1787285974.220462</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1480762745.20848</v>
+        <v>1321199972.428672</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1811226020116808</v>
+        <v>0.1958646699459371</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03950099325108706</v>
+        <v>0.03339726891539686</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>740381407.4602643</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2851566104.021331</v>
+        <v>3891591728.722294</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1731796041190931</v>
+        <v>0.1718995957212769</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0337060236063855</v>
+        <v>0.03332724152395345</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>13</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1425783122.260249</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1144902674.901813</v>
+        <v>941419542.2061625</v>
       </c>
       <c r="F51" t="n">
-        <v>0.133985270582959</v>
+        <v>0.1320612616435624</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04608762349324215</v>
+        <v>0.04581624304705164</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>572451397.7787937</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4433745068.123063</v>
+        <v>3993138494.15011</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1141867253847363</v>
+        <v>0.1382585879118919</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04681522885581785</v>
+        <v>0.06206846126628059</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>16</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2216872564.863545</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2783810233.439156</v>
+        <v>2828064887.611324</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1526172839252808</v>
+        <v>0.1951603586647983</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02943097831827141</v>
+        <v>0.0243616518231473</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>12</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1391905163.939821</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3721293260.385769</v>
+        <v>3380150968.280569</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1565481051887827</v>
+        <v>0.1352890094761701</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05205543382323863</v>
+        <v>0.04851107106424671</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>13</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1860646672.224536</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3951143494.094896</v>
+        <v>4612435217.617049</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2150033073687284</v>
+        <v>0.2032426514803445</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02967549552636776</v>
+        <v>0.02823970195439309</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>10</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1975571719.672426</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1167943694.062494</v>
+        <v>1886780590.487602</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1591756243406884</v>
+        <v>0.1215973606911452</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05239421480810095</v>
+        <v>0.03907185738423379</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>583971938.2291653</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3983256062.651509</v>
+        <v>3187217659.387936</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1697338753111461</v>
+        <v>0.1558902280005005</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02216884213562586</v>
+        <v>0.02328186844105837</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>13</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1991628118.139654</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1176976112.763922</v>
+        <v>1847765617.105786</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1451530383710715</v>
+        <v>0.1652135813816402</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02704581675230558</v>
+        <v>0.02757101837590784</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>588488116.7971855</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3305123025.226528</v>
+        <v>3485005340.840369</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1170461910563128</v>
+        <v>0.0938895111346062</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0429415242284106</v>
+        <v>0.03847678225655298</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1652561521.900845</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3515906418.184571</v>
+        <v>2815010389.618264</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1959526946358887</v>
+        <v>0.1528077953278944</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02487663074727341</v>
+        <v>0.02546620836346566</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>12</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1757953333.342621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2539164887.408388</v>
+        <v>3176696099.407809</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1392404642232917</v>
+        <v>0.1501640073335796</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02162660955100629</v>
+        <v>0.02517866014688687</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>14</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1269582467.470422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1631451647.355268</v>
+        <v>1561854522.535547</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1540631863725038</v>
+        <v>0.1503165410823612</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03634548501473597</v>
+        <v>0.04874230458616309</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>815725826.2744426</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4996716050.999483</v>
+        <v>5370309884.097341</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09113392011486822</v>
+        <v>0.1038293599445551</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03718605978581913</v>
+        <v>0.04110357344221106</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>11</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2498358043.241833</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3869616703.928818</v>
+        <v>3461510321.152031</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1587130189416668</v>
+        <v>0.1706608766530966</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0305484453127268</v>
+        <v>0.02907109791224901</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>12</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1934808378.497235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5650772326.944165</v>
+        <v>5177334907.856883</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1540733442557107</v>
+        <v>0.1189768726817956</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0196332494282963</v>
+        <v>0.02134547191572635</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>14</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2825386083.421025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4802346824.830951</v>
+        <v>4423690703.440027</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1425260376774722</v>
+        <v>0.1351660243714429</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0471281080255325</v>
+        <v>0.03250752084909935</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>11</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2401173428.81478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2619419331.323818</v>
+        <v>3144992138.891369</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06615416553777749</v>
+        <v>0.0799248973815929</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03240617947146252</v>
+        <v>0.04352127561895211</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>13</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1309709715.997061</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5282765730.855742</v>
+        <v>5849890472.957623</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1413356848703647</v>
+        <v>0.1328159402557502</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04109542316458502</v>
+        <v>0.04871966837803848</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>13</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2641382938.778274</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2256827681.628061</v>
+        <v>1923707159.17502</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1546998005261412</v>
+        <v>0.1541389662757303</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05249599261171865</v>
+        <v>0.03961129916187424</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1128413878.81096</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2486877052.836478</v>
+        <v>2499515933.95767</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1019975168441424</v>
+        <v>0.08191756725313634</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03738347652479344</v>
+        <v>0.03062138331842675</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>11</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1243438469.898156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5227940949.104681</v>
+        <v>5582355899.869509</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1518867688551498</v>
+        <v>0.1138187407994435</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02787483992115956</v>
+        <v>0.0266446196627211</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>14</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2613970597.097864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1820515104.308481</v>
+        <v>1909253682.529627</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06749219860622201</v>
+        <v>0.1075775351117718</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04576938534088861</v>
+        <v>0.04055666804091693</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>910257527.2858293</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3557091615.901687</v>
+        <v>2858195474.598236</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1037372757004429</v>
+        <v>0.1113828829510148</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03562519768994831</v>
+        <v>0.04172890896905648</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1778545752.788188</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3486878958.947839</v>
+        <v>2885340024.556707</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1444547872944143</v>
+        <v>0.1765363405432194</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03244396361204421</v>
+        <v>0.02803592863313201</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>14</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1743439502.648475</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2146314905.902246</v>
+        <v>2506909724.97549</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1289071813755834</v>
+        <v>0.110742461887334</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03390908449005117</v>
+        <v>0.02686091321128858</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1073157403.209768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5133569762.949282</v>
+        <v>3457312493.265446</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08473006444209913</v>
+        <v>0.1182468916532435</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0301155604524811</v>
+        <v>0.02921697349168522</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>8</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2566784913.541765</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1853485881.537835</v>
+        <v>2175991997.283471</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1368382636985477</v>
+        <v>0.1652246860701672</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02555582433567297</v>
+        <v>0.02774060542481719</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>926742980.5142233</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2924940147.279303</v>
+        <v>4266235034.856923</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1243526882257101</v>
+        <v>0.1076352097328896</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05224951579746553</v>
+        <v>0.05467418962048054</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>14</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1462470116.223565</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1276778799.991515</v>
+        <v>1539441897.427275</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1615399240078982</v>
+        <v>0.1719120907073731</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03452158486764473</v>
+        <v>0.02652960525702272</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>638389395.0229098</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3672697387.71323</v>
+        <v>5295944169.303192</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1116297099714419</v>
+        <v>0.07808173291591218</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03517750932439791</v>
+        <v>0.02800998575883105</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>8</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1836348676.909991</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4805944201.636143</v>
+        <v>3631437991.92457</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1168604750869305</v>
+        <v>0.1122521698144898</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02469592061693995</v>
+        <v>0.03170805249788993</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>9</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2402972093.835005</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4056804886.69954</v>
+        <v>4951953974.139723</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1659243705698461</v>
+        <v>0.1873411078824786</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02146397026558683</v>
+        <v>0.02304584947024592</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>15</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2028402479.818021</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1758796571.504994</v>
+        <v>1640315186.166912</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1020029451099653</v>
+        <v>0.1122299237549537</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03477457399867952</v>
+        <v>0.0363379802675811</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>879398240.8776896</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2140531836.754654</v>
+        <v>1812118149.117354</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09804775956239166</v>
+        <v>0.1120999904444547</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04048382488121944</v>
+        <v>0.04229705383115704</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1070265902.64086</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3564525426.367369</v>
+        <v>2668303758.887925</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1444227578444081</v>
+        <v>0.1767287774118594</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03633348426278921</v>
+        <v>0.05024904053472169</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>14</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1782262835.47185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2623147147.688967</v>
+        <v>2685240773.969877</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1479882511374691</v>
+        <v>0.1279284355279693</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01996059569135909</v>
+        <v>0.01918166535742952</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1311573687.928272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1401278747.587709</v>
+        <v>979266148.7414382</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1847773717011174</v>
+        <v>0.1309619095991976</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03442864274125291</v>
+        <v>0.03859986796761639</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>700639480.8338923</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2396400994.928319</v>
+        <v>2264109979.62452</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1078056947229711</v>
+        <v>0.1416443419812073</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02784542955935563</v>
+        <v>0.03250554568766883</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>14</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1198200468.10702</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3225996630.128981</v>
+        <v>2588619481.379781</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1547231236803669</v>
+        <v>0.09995638282549746</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02884508481481364</v>
+        <v>0.03094205905934398</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>13</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1612998336.407293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1583279831.558723</v>
+        <v>1786089882.719312</v>
       </c>
       <c r="F90" t="n">
-        <v>0.127123047362472</v>
+        <v>0.1184549163360759</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04844000518731272</v>
+        <v>0.04528425582517122</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>791639909.585613</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1641698838.165203</v>
+        <v>2099247960.600836</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1743092739390831</v>
+        <v>0.1332158466900969</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06074042311039084</v>
+        <v>0.05608738386224471</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>820849438.9496356</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2970269214.620383</v>
+        <v>2434149623.54358</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09589496972865737</v>
+        <v>0.1011470113925892</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03975527810345439</v>
+        <v>0.03642841183613476</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1485134626.642795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3779208725.827438</v>
+        <v>4502063821.710818</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1280701836425985</v>
+        <v>0.09931522612278383</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0355505839145433</v>
+        <v>0.04754674103800897</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>12</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1889604377.656432</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2030524230.791651</v>
+        <v>1938885603.009775</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1321079058084129</v>
+        <v>0.1238406710997298</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03765614803644025</v>
+        <v>0.03629703546411025</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1015262117.567466</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3044801815.490544</v>
+        <v>2732364403.412631</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1141317672458593</v>
+        <v>0.1245368950042203</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04166004914796667</v>
+        <v>0.03363859938282696</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1522400904.081528</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2112866323.744965</v>
+        <v>1811145624.578334</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1017108851225664</v>
+        <v>0.1308409213341002</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03630046573582221</v>
+        <v>0.03601410822964009</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1056433136.649348</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4834279283.176517</v>
+        <v>3983554001.171796</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1708474905410012</v>
+        <v>0.1617463166493344</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02388840169411217</v>
+        <v>0.02218355196325542</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>13</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2417139764.891448</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2696260359.099329</v>
+        <v>2875115437.336178</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09755729297683464</v>
+        <v>0.1043708228803608</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02128825323828129</v>
+        <v>0.03224586874867547</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>10</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1348130143.491075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2095337061.674352</v>
+        <v>2888646005.180097</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1482038821901764</v>
+        <v>0.09220465447369457</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02975160535715847</v>
+        <v>0.02570085823169343</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1047668450.956703</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3400166398.874102</v>
+        <v>3496722586.749679</v>
       </c>
       <c r="F100" t="n">
-        <v>0.147199424048346</v>
+        <v>0.1181411400324495</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02186038907532926</v>
+        <v>0.02204454810805719</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>12</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1700083222.07067</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2236355362.969512</v>
+        <v>2625820614.082816</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2048978892585638</v>
+        <v>0.1934614514921457</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03644291813257584</v>
+        <v>0.04955881727871051</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>17</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1118177669.441599</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_40.xlsx
+++ b/output/fit_clients/fit_round_40.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1765445453.95417</v>
+        <v>2411546455.2595</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06941838887443964</v>
+        <v>0.08261249321703046</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04528499813254634</v>
+        <v>0.03984975437420923</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1814412997.465645</v>
+        <v>1855807104.595224</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1738749338190468</v>
+        <v>0.1525251759587374</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04235307079668886</v>
+        <v>0.04461202220351913</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3590817767.455478</v>
+        <v>4212844707.2205</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1011012650016999</v>
+        <v>0.1269982957553567</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03250463146236189</v>
+        <v>0.0234834786978312</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3552624224.590661</v>
+        <v>3791769704.012442</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09807713309518055</v>
+        <v>0.0986813135190269</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0501500930458941</v>
+        <v>0.03456015557834807</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2135242067.204421</v>
+        <v>2675858520.800669</v>
       </c>
       <c r="F6" t="n">
-        <v>0.118456384957291</v>
+        <v>0.1085770631898687</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04840913113005212</v>
+        <v>0.04567021760246371</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2015845917.80516</v>
+        <v>2318676938.94155</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08947573629027823</v>
+        <v>0.09924749503884833</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03915008385207863</v>
+        <v>0.04222389694588813</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3742124189.328931</v>
+        <v>3364976626.614725</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1862102794625697</v>
+        <v>0.1435186142452133</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02279588935269508</v>
+        <v>0.02949817115798644</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2070000145.566067</v>
+        <v>1497595822.317684</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1912295512249766</v>
+        <v>0.1412769019459751</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03626028347704977</v>
+        <v>0.02779946611294853</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4193925715.127349</v>
+        <v>4655121331.255358</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1569192226109772</v>
+        <v>0.1725171866982259</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05439873533647197</v>
+        <v>0.04709905142291787</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3596140407.00379</v>
+        <v>3564032215.574831</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1737389416903154</v>
+        <v>0.1439940787840849</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03337725148688749</v>
+        <v>0.0390818583061357</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3171884533.837555</v>
+        <v>2608720747.25915</v>
       </c>
       <c r="F12" t="n">
-        <v>0.122620062208189</v>
+        <v>0.1572647561516961</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05007086634905416</v>
+        <v>0.04814815422091123</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4548919040.23146</v>
+        <v>3878040557.854915</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0644095868676316</v>
+        <v>0.07004492535327397</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02345438090735819</v>
+        <v>0.02318788702214273</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2449175430.537133</v>
+        <v>3756792531.853288</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1525166765247165</v>
+        <v>0.1182208636818791</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04338718752900972</v>
+        <v>0.0432589579257919</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1766178355.399327</v>
+        <v>1588837432.587994</v>
       </c>
       <c r="F15" t="n">
-        <v>0.106084180483913</v>
+        <v>0.07084564425501449</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04650916469487452</v>
+        <v>0.03202339583085313</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2413733162.663835</v>
+        <v>2348524741.434111</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1044862860972678</v>
+        <v>0.1089008931771903</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03616791689556478</v>
+        <v>0.04442331110121213</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4820626844.076486</v>
+        <v>3423909881.383691</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1555751680883098</v>
+        <v>0.1334121521978485</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04526390336894418</v>
+        <v>0.05282214893355005</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4021301474.805071</v>
+        <v>3151921244.132059</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1421905257632261</v>
+        <v>0.1767243540838875</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02079185932628687</v>
+        <v>0.03286343291422664</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1199872578.133324</v>
+        <v>1097351432.633595</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1748685616461355</v>
+        <v>0.1674115685853066</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02062057786928618</v>
+        <v>0.02363943690820214</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2088401212.519643</v>
+        <v>1765324730.868381</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1503661550956138</v>
+        <v>0.1073966628524026</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02943047539132794</v>
+        <v>0.0211017805468639</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1898782414.221864</v>
+        <v>1898115213.053814</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06206125032219551</v>
+        <v>0.06932068285326824</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03066172299228201</v>
+        <v>0.04466926063905669</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2528348652.083549</v>
+        <v>3844784016.112433</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1314566341822015</v>
+        <v>0.1389807624576088</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03897951555838813</v>
+        <v>0.05496805716268662</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1360924523.160002</v>
+        <v>1024896870.647225</v>
       </c>
       <c r="F23" t="n">
-        <v>0.186080455536709</v>
+        <v>0.1526800920225911</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04565650357286325</v>
+        <v>0.03608190293220885</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3905671725.428233</v>
+        <v>2504537156.243737</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1458119156795633</v>
+        <v>0.1058784634605279</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02606715597447039</v>
+        <v>0.03337754219923397</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1116307690.160825</v>
+        <v>1189177285.687097</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1181095682446115</v>
+        <v>0.09362374223639436</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03060802356868692</v>
+        <v>0.02759506414478145</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1347405211.891037</v>
+        <v>953987535.5480617</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07699586272748664</v>
+        <v>0.09795285723618052</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02373514855354588</v>
+        <v>0.03735774715895414</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4566446342.082877</v>
+        <v>3905265668.825265</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1544049845132879</v>
+        <v>0.1446214562370571</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01888823305038926</v>
+        <v>0.02701803177539145</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3896742641.189229</v>
+        <v>3318442691.123578</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1322356320844234</v>
+        <v>0.1495970227421139</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03663283511548861</v>
+        <v>0.0479716646615625</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4204488923.216785</v>
+        <v>3671512508.425397</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09985182978662147</v>
+        <v>0.09792940335330365</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0340919554257447</v>
+        <v>0.03360021981880567</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1938846377.427053</v>
+        <v>2006686811.694183</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09297726427175819</v>
+        <v>0.1105690135754491</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02494174750161554</v>
+        <v>0.02589494543122719</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1127697332.599297</v>
+        <v>1397781274.712899</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0995148821236474</v>
+        <v>0.08317013967912529</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03384631161256114</v>
+        <v>0.03162717361378389</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1264811774.81917</v>
+        <v>1624160073.783058</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1002308783022233</v>
+        <v>0.07510700478086822</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03000613155150926</v>
+        <v>0.03841144158047269</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2383458102.710773</v>
+        <v>2354661350.958576</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2055694169227722</v>
+        <v>0.1917731324421433</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04260339311020834</v>
+        <v>0.04365484879643422</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1405017710.129909</v>
+        <v>1474871220.963382</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0894924606171886</v>
+        <v>0.104977388094451</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02402537829745406</v>
+        <v>0.02715996155129676</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>943790642.8220595</v>
+        <v>1344842385.803124</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1020851818898899</v>
+        <v>0.1024190080443017</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02933581043440632</v>
+        <v>0.03935604990647915</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2122583032.357351</v>
+        <v>3108405928.691912</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1481586162410214</v>
+        <v>0.1416520907879721</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02218416674181937</v>
+        <v>0.02513812129372768</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2656171945.391304</v>
+        <v>2787502886.288448</v>
       </c>
       <c r="F37" t="n">
-        <v>0.10955319656757</v>
+        <v>0.07220894507828268</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03703428713326358</v>
+        <v>0.03654540821290143</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1461676148.959481</v>
+        <v>1722489955.229095</v>
       </c>
       <c r="F38" t="n">
-        <v>0.116388296293043</v>
+        <v>0.09426610281850892</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03602718572622829</v>
+        <v>0.03761938602366885</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1609479030.552137</v>
+        <v>1570827786.997181</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1317406473481756</v>
+        <v>0.1583250151927716</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02514173516794191</v>
+        <v>0.03114804447575924</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1199419949.511517</v>
+        <v>1669789876.834518</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1303043593486941</v>
+        <v>0.1627586415508405</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04471829606326242</v>
+        <v>0.04187387762688781</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2682066932.887328</v>
+        <v>2758817591.439218</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1473254512666793</v>
+        <v>0.1122865407302548</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04546614989625317</v>
+        <v>0.04393054918756781</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3925944642.920017</v>
+        <v>3850761633.933616</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08343697520316169</v>
+        <v>0.1160396134929474</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03186703108980259</v>
+        <v>0.03667176869853848</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3007218375.804634</v>
+        <v>2221440293.794983</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1689043477619269</v>
+        <v>0.1363953074287152</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02295990215072937</v>
+        <v>0.02033469426391316</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2095445807.776322</v>
+        <v>1539204271.975483</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09145417304876684</v>
+        <v>0.07320194283122025</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02581989884391583</v>
+        <v>0.02448437001052743</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2320828697.185856</v>
+        <v>2229946810.113579</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1197277918455751</v>
+        <v>0.1804133028674321</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04344264219774684</v>
+        <v>0.05432312846527231</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3554969179.699444</v>
+        <v>3929008246.843329</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1408157052266284</v>
+        <v>0.1448999381225987</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0508842880822533</v>
+        <v>0.04251106489693257</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4421180650.177312</v>
+        <v>4378889443.724214</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1717627898520506</v>
+        <v>0.1909928390731271</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04054345716469458</v>
+        <v>0.05651511089541355</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3962174324.675722</v>
+        <v>3096136443.219175</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07931416746197036</v>
+        <v>0.07948246681638832</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03519526231115785</v>
+        <v>0.03297102549554241</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1321199972.428672</v>
+        <v>1769298603.273547</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1958646699459371</v>
+        <v>0.1890011757885894</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03339726891539686</v>
+        <v>0.03087972491258959</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3891591728.722294</v>
+        <v>3538311658.934195</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1718995957212769</v>
+        <v>0.1339079072928485</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03332724152395345</v>
+        <v>0.0396461663657218</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>941419542.2061625</v>
+        <v>1445435423.021339</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1320612616435624</v>
+        <v>0.1807791624477384</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04581624304705164</v>
+        <v>0.03436288403217101</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3993138494.15011</v>
+        <v>3791921907.451781</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1382585879118919</v>
+        <v>0.1103505431233267</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06206846126628059</v>
+        <v>0.03844712750717064</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2828064887.611324</v>
+        <v>3742573303.272369</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1951603586647983</v>
+        <v>0.1374597164039391</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0243616518231473</v>
+        <v>0.02980213900981257</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3380150968.280569</v>
+        <v>3182314242.209727</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1352890094761701</v>
+        <v>0.163712161751853</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04851107106424671</v>
+        <v>0.0427406386789598</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4612435217.617049</v>
+        <v>3762691536.016135</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2032426514803445</v>
+        <v>0.1835501316218636</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02823970195439309</v>
+        <v>0.02163520592398525</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1886780590.487602</v>
+        <v>1425321578.448864</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1215973606911452</v>
+        <v>0.1039617132159145</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03907185738423379</v>
+        <v>0.05492393773152393</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3187217659.387936</v>
+        <v>3086279643.146169</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1558902280005005</v>
+        <v>0.1531974615367471</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02328186844105837</v>
+        <v>0.02230069509837473</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1847765617.105786</v>
+        <v>1355533975.571798</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1652135813816402</v>
+        <v>0.1293109906048074</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02757101837590784</v>
+        <v>0.03769126955260931</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3485005340.840369</v>
+        <v>3696309560.883517</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0938895111346062</v>
+        <v>0.1123998164610476</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03847678225655298</v>
+        <v>0.03436825926335062</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2815010389.618264</v>
+        <v>3654687675.463434</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1528077953278944</v>
+        <v>0.1282576140477233</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02546620836346566</v>
+        <v>0.02709754161486254</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3176696099.407809</v>
+        <v>2393793263.595403</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1501640073335796</v>
+        <v>0.1781082695514692</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02517866014688687</v>
+        <v>0.03297567106526045</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1561854522.535547</v>
+        <v>1733813570.809303</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1503165410823612</v>
+        <v>0.1290977043443559</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04874230458616309</v>
+        <v>0.03470835508840386</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5370309884.097341</v>
+        <v>4963977355.73956</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1038293599445551</v>
+        <v>0.1062552863286161</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04110357344221106</v>
+        <v>0.04330559523891601</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3461510321.152031</v>
+        <v>4586030156.476735</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1706608766530966</v>
+        <v>0.1351013295860536</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02907109791224901</v>
+        <v>0.03524978535688789</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5177334907.856883</v>
+        <v>3891154490.74869</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1189768726817956</v>
+        <v>0.1726155648381961</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02134547191572635</v>
+        <v>0.02528856903044392</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4423690703.440027</v>
+        <v>5553721040.869572</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1351660243714429</v>
+        <v>0.1535297917222751</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03250752084909935</v>
+        <v>0.04176504418924716</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3144992138.891369</v>
+        <v>2870586507.388931</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0799248973815929</v>
+        <v>0.0986038815802604</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04352127561895211</v>
+        <v>0.04435300106623019</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5849890472.957623</v>
+        <v>6041435610.972518</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1328159402557502</v>
+        <v>0.1128502812829593</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04871966837803848</v>
+        <v>0.04617393975394941</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1923707159.17502</v>
+        <v>1569158121.225913</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1541389662757303</v>
+        <v>0.1552947953732119</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03961129916187424</v>
+        <v>0.05479029571334829</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2499515933.95767</v>
+        <v>2667385812.803768</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08191756725313634</v>
+        <v>0.09775276500313738</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03062138331842675</v>
+        <v>0.0369623899476972</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5582355899.869509</v>
+        <v>5131385168.495226</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1138187407994435</v>
+        <v>0.151446381944058</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0266446196627211</v>
+        <v>0.03398850620270405</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1909253682.529627</v>
+        <v>1786016201.273653</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1075775351117718</v>
+        <v>0.07077886666518886</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04055666804091693</v>
+        <v>0.0523707742279398</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2858195474.598236</v>
+        <v>2958441775.62558</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1113828829510148</v>
+        <v>0.07862904355154957</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04172890896905648</v>
+        <v>0.03497935134601056</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2885340024.556707</v>
+        <v>2569827348.693422</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1765363405432194</v>
+        <v>0.1742925488528579</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02803592863313201</v>
+        <v>0.03009439727190482</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2506909724.97549</v>
+        <v>1857498164.21717</v>
       </c>
       <c r="F75" t="n">
-        <v>0.110742461887334</v>
+        <v>0.1027429736537708</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02686091321128858</v>
+        <v>0.03519531985556945</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3457312493.265446</v>
+        <v>3400624429.79706</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1182468916532435</v>
+        <v>0.1181968942749956</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02921697349168522</v>
+        <v>0.02824349534370317</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2175991997.283471</v>
+        <v>1613364327.334724</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1652246860701672</v>
+        <v>0.1354194744667649</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02774060542481719</v>
+        <v>0.01972334774742689</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4266235034.856923</v>
+        <v>3129421393.826676</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1076352097328896</v>
+        <v>0.09606637908162219</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05467418962048054</v>
+        <v>0.05325901145217539</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1539441897.427275</v>
+        <v>1277255941.760796</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1719120907073731</v>
+        <v>0.1334107551814126</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02652960525702272</v>
+        <v>0.02710628296907656</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5295944169.303192</v>
+        <v>4560381569.355777</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07808173291591218</v>
+        <v>0.06809195671358409</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02800998575883105</v>
+        <v>0.03248658255722809</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3631437991.92457</v>
+        <v>4714651170.031717</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1122521698144898</v>
+        <v>0.08482399868981083</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03170805249788993</v>
+        <v>0.02737913620481953</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4951953974.139723</v>
+        <v>4202794541.952706</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1873411078824786</v>
+        <v>0.1571720393518292</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02304584947024592</v>
+        <v>0.01861527762622382</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1640315186.166912</v>
+        <v>2322746563.47995</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1122299237549537</v>
+        <v>0.104402720667014</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0363379802675811</v>
+        <v>0.03404788784301432</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1812118149.117354</v>
+        <v>2587556191.240345</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1120999904444547</v>
+        <v>0.08842038960414909</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04229705383115704</v>
+        <v>0.04447279248525041</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2668303758.887925</v>
+        <v>2314336170.177541</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1767287774118594</v>
+        <v>0.1128649144964278</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05024904053472169</v>
+        <v>0.04448609077193804</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2685240773.969877</v>
+        <v>2304760979.015132</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1279284355279693</v>
+        <v>0.1514872712612316</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01918166535742952</v>
+        <v>0.01834451799696323</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>979266148.7414382</v>
+        <v>1507952949.183522</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1309619095991976</v>
+        <v>0.1219372613133584</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03859986796761639</v>
+        <v>0.0409824083629278</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2264109979.62452</v>
+        <v>2711437537.359157</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1416443419812073</v>
+        <v>0.1364990275187738</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03250554568766883</v>
+        <v>0.02515499016611267</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2588619481.379781</v>
+        <v>3356055536.862651</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09995638282549746</v>
+        <v>0.1472159940295007</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03094205905934398</v>
+        <v>0.03358603965530334</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1786089882.719312</v>
+        <v>1885516584.804258</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1184549163360759</v>
+        <v>0.08321512785695219</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04528425582517122</v>
+        <v>0.04686543409764811</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2099247960.600836</v>
+        <v>1816739696.146038</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1332158466900969</v>
+        <v>0.1380396922512683</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05608738386224471</v>
+        <v>0.05574455418150805</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2434149623.54358</v>
+        <v>2671915502.476974</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1011470113925892</v>
+        <v>0.09795619305046574</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03642841183613476</v>
+        <v>0.03080275927926672</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4502063821.710818</v>
+        <v>3540777713.005632</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09931522612278383</v>
+        <v>0.112545010230024</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04754674103800897</v>
+        <v>0.0372241149898084</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1938885603.009775</v>
+        <v>2235233262.590848</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1238406710997298</v>
+        <v>0.1250382567097947</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03629703546411025</v>
+        <v>0.03448219178435771</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2732364403.412631</v>
+        <v>2199047767.402836</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1245368950042203</v>
+        <v>0.134069519064167</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03363859938282696</v>
+        <v>0.05027999524809371</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1811145624.578334</v>
+        <v>1554764733.775838</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1308409213341002</v>
+        <v>0.09445758194822661</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03601410822964009</v>
+        <v>0.0328814885554111</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3983554001.171796</v>
+        <v>3737821497.673115</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1617463166493344</v>
+        <v>0.1760594234759953</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02218355196325542</v>
+        <v>0.02129395448240283</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2875115437.336178</v>
+        <v>2737984934.92235</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1043708228803608</v>
+        <v>0.1051112314095823</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03224586874867547</v>
+        <v>0.02600715554314153</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2888646005.180097</v>
+        <v>2420867623.343801</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09220465447369457</v>
+        <v>0.137980049857964</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02570085823169343</v>
+        <v>0.03375906927929284</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3496722586.749679</v>
+        <v>2997693682.920063</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1181411400324495</v>
+        <v>0.1738238278559592</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02204454810805719</v>
+        <v>0.02673104737919856</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2625820614.082816</v>
+        <v>2982930752.845037</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1934614514921457</v>
+        <v>0.1745600583761223</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04955881727871051</v>
+        <v>0.03674585328902848</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_40.xlsx
+++ b/output/fit_clients/fit_round_40.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2411546455.2595</v>
+        <v>2126944739.506827</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08261249321703046</v>
+        <v>0.108993463411525</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03984975437420923</v>
+        <v>0.04429761418414983</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1855807104.595224</v>
+        <v>2033253402.223291</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1525251759587374</v>
+        <v>0.1736678104516043</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04461202220351913</v>
+        <v>0.04041622428073845</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4212844707.2205</v>
+        <v>4635917927.799643</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1269982957553567</v>
+        <v>0.1048688622522295</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0234834786978312</v>
+        <v>0.02882057711194972</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29</v>
+      </c>
+      <c r="J4" t="n">
+        <v>40</v>
+      </c>
+      <c r="K4" t="n">
+        <v>214.6047335002243</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3791769704.012442</v>
+        <v>2568459078.178052</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0986813135190269</v>
+        <v>0.0891690220236822</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03456015557834807</v>
+        <v>0.04898177918293475</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>37</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2675858520.800669</v>
+        <v>2725258802.728202</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1085770631898687</v>
+        <v>0.09688265264829246</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04567021760246371</v>
+        <v>0.04302626323332757</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2318676938.94155</v>
+        <v>2355032320.852502</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09924749503884833</v>
+        <v>0.0779040819513689</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04222389694588813</v>
+        <v>0.0382895384261269</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3364976626.614725</v>
+        <v>3195379702.839427</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1435186142452133</v>
+        <v>0.1989651663185725</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02949817115798644</v>
+        <v>0.03318495505844214</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>39</v>
+      </c>
+      <c r="K8" t="n">
+        <v>121.9619170682975</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1497595822.317684</v>
+        <v>1845979431.909208</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1412769019459751</v>
+        <v>0.1299798083249469</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02779946611294853</v>
+        <v>0.02608785926776981</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4655121331.255358</v>
+        <v>4341503462.841704</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1725171866982259</v>
+        <v>0.2016635480589649</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04709905142291787</v>
+        <v>0.03962684524041845</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>37</v>
+      </c>
+      <c r="J10" t="n">
+        <v>40</v>
+      </c>
+      <c r="K10" t="n">
+        <v>237.5573999651181</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3564032215.574831</v>
+        <v>4107438382.004944</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1439940787840849</v>
+        <v>0.1260521017025021</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0390818583061357</v>
+        <v>0.04923884454110281</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>18</v>
+      </c>
+      <c r="J11" t="n">
+        <v>40</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2608720747.25915</v>
+        <v>2390264770.489064</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1572647561516961</v>
+        <v>0.1950465258770682</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04814815422091123</v>
+        <v>0.05156728338898332</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3878040557.854915</v>
+        <v>5300322035.277749</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07004492535327397</v>
+        <v>0.06148634447734523</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02318788702214273</v>
+        <v>0.02145330027171099</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>19</v>
+      </c>
+      <c r="J13" t="n">
+        <v>39</v>
+      </c>
+      <c r="K13" t="n">
+        <v>211.0402869240862</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3756792531.853288</v>
+        <v>2896442274.454166</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1182208636818791</v>
+        <v>0.1433668229487762</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0432589579257919</v>
+        <v>0.02704404275714454</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>36</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1588837432.587994</v>
+        <v>1241650605.354036</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07084564425501449</v>
+        <v>0.09636974228286312</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03202339583085313</v>
+        <v>0.04269951319611708</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2348524741.434111</v>
+        <v>2156539745.852519</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1089008931771903</v>
+        <v>0.08282512163953941</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04442331110121213</v>
+        <v>0.04554736074272352</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3423909881.383691</v>
+        <v>3230451883.977195</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1334121521978485</v>
+        <v>0.1208164689406337</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05282214893355005</v>
+        <v>0.04554200440817321</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>19</v>
+      </c>
+      <c r="J17" t="n">
+        <v>38</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3151921244.132059</v>
+        <v>3652654284.446163</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1767243540838875</v>
+        <v>0.133683065533188</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03286343291422664</v>
+        <v>0.03371400550054027</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>39</v>
+      </c>
+      <c r="K18" t="n">
+        <v>165.4581806815069</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1097351432.633595</v>
+        <v>1010351080.433735</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1674115685853066</v>
+        <v>0.1294980499405875</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02363943690820214</v>
+        <v>0.02085583217103354</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1765324730.868381</v>
+        <v>1693766384.249254</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1073966628524026</v>
+        <v>0.1084755969797824</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0211017805468639</v>
+        <v>0.02469877232327785</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1898115213.053814</v>
+        <v>2197211979.558372</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06932068285326824</v>
+        <v>0.09513225391602027</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04466926063905669</v>
+        <v>0.04297616069763472</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3844784016.112433</v>
+        <v>3592003213.438714</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1389807624576088</v>
+        <v>0.08911153594103319</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05496805716268662</v>
+        <v>0.03919799879069396</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>40</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1024896870.647225</v>
+        <v>1089050913.163319</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1526800920225911</v>
+        <v>0.1220040685268359</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03608190293220885</v>
+        <v>0.03779505273379205</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2504537156.243737</v>
+        <v>3649706027.181692</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1058784634605279</v>
+        <v>0.09762601949803967</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03337754219923397</v>
+        <v>0.02969996967973388</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>10</v>
+      </c>
+      <c r="J24" t="n">
+        <v>39</v>
+      </c>
+      <c r="K24" t="n">
+        <v>155.6799444124959</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1189177285.687097</v>
+        <v>935485724.3027096</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09362374223639436</v>
+        <v>0.1205275879000575</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02759506414478145</v>
+        <v>0.02468674508463251</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>953987535.5480617</v>
+        <v>988652863.6205789</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09795285723618052</v>
+        <v>0.0908064331458681</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03735774715895414</v>
+        <v>0.03324310309811951</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3905265668.825265</v>
+        <v>2953155345.314391</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1446214562370571</v>
+        <v>0.1021619771982422</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02701803177539145</v>
+        <v>0.01895421880664199</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16</v>
+      </c>
+      <c r="J27" t="n">
+        <v>38</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3318442691.123578</v>
+        <v>3737564709.508406</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1495970227421139</v>
+        <v>0.1343833619717917</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0479716646615625</v>
+        <v>0.0372227187701695</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" t="n">
+        <v>40</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3671512508.425397</v>
+        <v>3793449153.290644</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09792940335330365</v>
+        <v>0.1094261339513555</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03360021981880567</v>
+        <v>0.040118361435116</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>36</v>
+      </c>
+      <c r="J29" t="n">
+        <v>39</v>
+      </c>
+      <c r="K29" t="n">
+        <v>206.2787320227586</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2006686811.694183</v>
+        <v>1909845287.350703</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1105690135754491</v>
+        <v>0.1203203453189298</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02589494543122719</v>
+        <v>0.03810131662923866</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1397781274.712899</v>
+        <v>1336883386.115346</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08317013967912529</v>
+        <v>0.1009803070249823</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03162717361378389</v>
+        <v>0.03906855181932731</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1624160073.783058</v>
+        <v>1553254007.911521</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07510700478086822</v>
+        <v>0.1022982801902224</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03841144158047269</v>
+        <v>0.034182237374596</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2354661350.958576</v>
+        <v>2521875013.813511</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1917731324421433</v>
+        <v>0.1572251401934007</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04365484879643422</v>
+        <v>0.04342047305812626</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1474871220.963382</v>
+        <v>1519811258.793947</v>
       </c>
       <c r="F34" t="n">
-        <v>0.104977388094451</v>
+        <v>0.1148587720247287</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02715996155129676</v>
+        <v>0.02487481537908103</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1344842385.803124</v>
+        <v>1101471690.568079</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1024190080443017</v>
+        <v>0.09210087740624064</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03935604990647915</v>
+        <v>0.03991358015267359</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3108405928.691912</v>
+        <v>2024473799.986904</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1416520907879721</v>
+        <v>0.1713563592072724</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02513812129372768</v>
+        <v>0.02533208614100475</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2787502886.288448</v>
+        <v>1981050079.753485</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07220894507828268</v>
+        <v>0.09326791295179347</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03654540821290143</v>
+        <v>0.03425355634534094</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1722489955.229095</v>
+        <v>1804932880.72445</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09426610281850892</v>
+        <v>0.07451468950015352</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03761938602366885</v>
+        <v>0.03620896263433721</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1570827786.997181</v>
+        <v>1983643084.54807</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1583250151927716</v>
+        <v>0.1347352034091913</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03114804447575924</v>
+        <v>0.03143094762830977</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1669789876.834518</v>
+        <v>1473892939.995842</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1627586415508405</v>
+        <v>0.1409418913579125</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04187387762688781</v>
+        <v>0.04511149781734521</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2758817591.439218</v>
+        <v>2281500612.466936</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1122865407302548</v>
+        <v>0.156308733495875</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04393054918756781</v>
+        <v>0.03792788957174791</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1915,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3850761633.933616</v>
+        <v>3387542773.996477</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1160396134929474</v>
+        <v>0.1131657048364782</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03667176869853848</v>
+        <v>0.04337360182032265</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>13</v>
+      </c>
+      <c r="J42" t="n">
+        <v>40</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2221440293.794983</v>
+        <v>2808011213.344447</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1363953074287152</v>
+        <v>0.1430433736801872</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02033469426391316</v>
+        <v>0.01714546757206286</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1539204271.975483</v>
+        <v>2263012999.591426</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07320194283122025</v>
+        <v>0.07062080794362757</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02448437001052743</v>
+        <v>0.0333219228617766</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2229946810.113579</v>
+        <v>1803549196.049618</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1804133028674321</v>
+        <v>0.1795411669573173</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05432312846527231</v>
+        <v>0.04514757170156519</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3929008246.843329</v>
+        <v>5653327790.02868</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1448999381225987</v>
+        <v>0.1234224228441424</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04251106489693257</v>
+        <v>0.05842285354336312</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>24</v>
+      </c>
+      <c r="J46" t="n">
+        <v>40</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4378889443.724214</v>
+        <v>3316455341.404325</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1909928390731271</v>
+        <v>0.1255603870340907</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05651511089541355</v>
+        <v>0.05054961456791135</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>17</v>
+      </c>
+      <c r="J47" t="n">
+        <v>38</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3096136443.219175</v>
+        <v>3981218928.63536</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07948246681638832</v>
+        <v>0.06951738425801439</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03297102549554241</v>
+        <v>0.02380160190768644</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>13</v>
+      </c>
+      <c r="J48" t="n">
+        <v>40</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1769298603.273547</v>
+        <v>1328525939.601145</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1890011757885894</v>
+        <v>0.124022577278382</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03087972491258959</v>
+        <v>0.02906611079269966</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3538311658.934195</v>
+        <v>2655336880.588238</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1339079072928485</v>
+        <v>0.1101868480431434</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0396461663657218</v>
+        <v>0.03764672736690093</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>15</v>
+      </c>
+      <c r="J50" t="n">
+        <v>38</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1445435423.021339</v>
+        <v>1291957478.970988</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1807791624477384</v>
+        <v>0.1189329807673132</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03436288403217101</v>
+        <v>0.03497661539084913</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3791921907.451781</v>
+        <v>4322748632.780674</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1103505431233267</v>
+        <v>0.123524564828242</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03844712750717064</v>
+        <v>0.0485162278774833</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>31</v>
+      </c>
+      <c r="J52" t="n">
+        <v>40</v>
+      </c>
+      <c r="K52" t="n">
+        <v>229.0132940112072</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3742573303.272369</v>
+        <v>2720770510.710581</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1374597164039391</v>
+        <v>0.15849580731833</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02980213900981257</v>
+        <v>0.0354180269180726</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3182314242.209727</v>
+        <v>3164911067.656188</v>
       </c>
       <c r="F54" t="n">
-        <v>0.163712161751853</v>
+        <v>0.1450326560321611</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0427406386789598</v>
+        <v>0.04893325519552771</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>17</v>
+      </c>
+      <c r="J54" t="n">
+        <v>38</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2372,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3762691536.016135</v>
+        <v>3433597527.858125</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1835501316218636</v>
+        <v>0.1585312996455503</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02163520592398525</v>
+        <v>0.02187238501609833</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>19</v>
+      </c>
+      <c r="J55" t="n">
+        <v>39</v>
+      </c>
+      <c r="K55" t="n">
+        <v>128.5657273929625</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1425321578.448864</v>
+        <v>1144129115.546902</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1039617132159145</v>
+        <v>0.1148289690769763</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05492393773152393</v>
+        <v>0.04487493363139658</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3086279643.146169</v>
+        <v>2950799774.084176</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1531974615367471</v>
+        <v>0.1760407707555522</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02230069509837473</v>
+        <v>0.02271753386601838</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>16</v>
+      </c>
+      <c r="J57" t="n">
+        <v>39</v>
+      </c>
+      <c r="K57" t="n">
+        <v>103.604269324282</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1355533975.571798</v>
+        <v>1392344978.248464</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1293109906048074</v>
+        <v>0.126797804621101</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03769126955260931</v>
+        <v>0.02908232018665669</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3696309560.883517</v>
+        <v>3611666748.965265</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1123998164610476</v>
+        <v>0.111146896274354</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03436825926335062</v>
+        <v>0.03173015713034377</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>19</v>
+      </c>
+      <c r="J59" t="n">
+        <v>39</v>
+      </c>
+      <c r="K59" t="n">
+        <v>144.0190209107653</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3654687675.463434</v>
+        <v>3204206492.568223</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1282576140477233</v>
+        <v>0.1575033321028125</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02709754161486254</v>
+        <v>0.02751021600915409</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2393793263.595403</v>
+        <v>3196901964.799407</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1781082695514692</v>
+        <v>0.1509724008204232</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03297567106526045</v>
+        <v>0.02584319413998692</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1733813570.809303</v>
+        <v>1775910243.881883</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1290977043443559</v>
+        <v>0.1927590306451573</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03470835508840386</v>
+        <v>0.03061498744318827</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4963977355.73956</v>
+        <v>4875196716.021201</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1062552863286161</v>
+        <v>0.07159713704233857</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04330559523891601</v>
+        <v>0.04418979653279027</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>19</v>
+      </c>
+      <c r="J63" t="n">
+        <v>40</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4586030156.476735</v>
+        <v>4913359246.666655</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1351013295860536</v>
+        <v>0.1647439878834147</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03524978535688789</v>
+        <v>0.02267275843414464</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>20</v>
+      </c>
+      <c r="J64" t="n">
+        <v>39</v>
+      </c>
+      <c r="K64" t="n">
+        <v>199.958821044384</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3891154490.74869</v>
+        <v>5656666536.268917</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1726155648381961</v>
+        <v>0.1285330789171958</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02528856903044392</v>
+        <v>0.02421467995296699</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>32</v>
+      </c>
+      <c r="J65" t="n">
+        <v>40</v>
+      </c>
+      <c r="K65" t="n">
+        <v>214.0552127756616</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5553721040.869572</v>
+        <v>5181315639.958282</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1535297917222751</v>
+        <v>0.1366652524809645</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04176504418924716</v>
+        <v>0.04986469090983033</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>20</v>
+      </c>
+      <c r="J66" t="n">
+        <v>39</v>
+      </c>
+      <c r="K66" t="n">
+        <v>196.0618783995529</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2870586507.388931</v>
+        <v>2453575775.882333</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0986038815802604</v>
+        <v>0.08391463252773998</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04435300106623019</v>
+        <v>0.04010568845728028</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2839,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6041435610.972518</v>
+        <v>4103114446.858212</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1128502812829593</v>
+        <v>0.1086175365807533</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04617393975394941</v>
+        <v>0.04392144290967065</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>20</v>
+      </c>
+      <c r="J68" t="n">
+        <v>39</v>
+      </c>
+      <c r="K68" t="n">
+        <v>201.3460525701621</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1569158121.225913</v>
+        <v>2020577325.279621</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1552947953732119</v>
+        <v>0.1825238078459684</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05479029571334829</v>
+        <v>0.05952655707356372</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2667385812.803768</v>
+        <v>3212306171.619</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09775276500313738</v>
+        <v>0.06362516462014593</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0369623899476972</v>
+        <v>0.04461358791025807</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>35</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2946,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5131385168.495226</v>
+        <v>4097722649.79955</v>
       </c>
       <c r="F71" t="n">
-        <v>0.151446381944058</v>
+        <v>0.1729784474887013</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03398850620270405</v>
+        <v>0.03200391997165471</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>33</v>
+      </c>
+      <c r="J71" t="n">
+        <v>40</v>
+      </c>
+      <c r="K71" t="n">
+        <v>214.6551967708154</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1786016201.273653</v>
+        <v>1896644855.988696</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07077886666518886</v>
+        <v>0.0963043325156748</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0523707742279398</v>
+        <v>0.05036295598362592</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2958441775.62558</v>
+        <v>2269710166.23559</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07862904355154957</v>
+        <v>0.1075077484845275</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03497935134601056</v>
+        <v>0.04713965131080356</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>30</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3047,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2569827348.693422</v>
+        <v>3655608718.887867</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1742925488528579</v>
+        <v>0.1664101086573698</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03009439727190482</v>
+        <v>0.03221381785562638</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>12</v>
+      </c>
+      <c r="J74" t="n">
+        <v>39</v>
+      </c>
+      <c r="K74" t="n">
+        <v>168.4424765087552</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1857498164.21717</v>
+        <v>2499503336.59155</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1027429736537708</v>
+        <v>0.1585980364395554</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03519531985556945</v>
+        <v>0.02896623364381714</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3400624429.79706</v>
+        <v>4924613839.306479</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1181968942749956</v>
+        <v>0.1226356451362294</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02824349534370317</v>
+        <v>0.03390081476226927</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>19</v>
+      </c>
+      <c r="J76" t="n">
+        <v>39</v>
+      </c>
+      <c r="K76" t="n">
+        <v>170.0709080715125</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1613364327.334724</v>
+        <v>2029427861.047682</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1354194744667649</v>
+        <v>0.1550499736953244</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01972334774742689</v>
+        <v>0.02546701582561837</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3191,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3129421393.826676</v>
+        <v>4718174038.426078</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09606637908162219</v>
+        <v>0.1059442875759031</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05325901145217539</v>
+        <v>0.04406008440192338</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>17</v>
+      </c>
+      <c r="J78" t="n">
+        <v>39</v>
+      </c>
+      <c r="K78" t="n">
+        <v>212.5711772913455</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3228,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1277255941.760796</v>
+        <v>1538553765.484842</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1334107551814126</v>
+        <v>0.1310360454733298</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02710628296907656</v>
+        <v>0.02621964182984132</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3263,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4560381569.355777</v>
+        <v>4964905290.413463</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06809195671358409</v>
+        <v>0.08912130725949167</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03248658255722809</v>
+        <v>0.02902964012031975</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>19</v>
+      </c>
+      <c r="J80" t="n">
+        <v>40</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4714651170.031717</v>
+        <v>3718716774.869421</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08482399868981083</v>
+        <v>0.09922771327038316</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02737913620481953</v>
+        <v>0.02970973712271109</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>17</v>
+      </c>
+      <c r="J81" t="n">
+        <v>40</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,17 +3339,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4202794541.952706</v>
+        <v>5429421739.721152</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1571720393518292</v>
+        <v>0.201743189100775</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01861527762622382</v>
+        <v>0.02320447701185949</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>22</v>
+      </c>
+      <c r="J82" t="n">
+        <v>40</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2322746563.47995</v>
+        <v>2193722910.558324</v>
       </c>
       <c r="F83" t="n">
-        <v>0.104402720667014</v>
+        <v>0.1508341943607281</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03404788784301432</v>
+        <v>0.04076394203481656</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2587556191.240345</v>
+        <v>2223475422.556995</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08842038960414909</v>
+        <v>0.1022434460851496</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04447279248525041</v>
+        <v>0.04188449644793875</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2314336170.177541</v>
+        <v>2252480428.767409</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1128649144964278</v>
+        <v>0.1250725507439882</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04448609077193804</v>
+        <v>0.04973100234369566</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>7</v>
+      </c>
+      <c r="J85" t="n">
+        <v>37</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2304760979.015132</v>
+        <v>2797121703.106845</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1514872712612316</v>
+        <v>0.1668092818350146</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01834451799696323</v>
+        <v>0.01827259013294015</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1507952949.183522</v>
+        <v>954428366.0810838</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1219372613133584</v>
+        <v>0.1617858247486112</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0409824083629278</v>
+        <v>0.03138117728521385</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2711437537.359157</v>
+        <v>3712648289.834932</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1364990275187738</v>
+        <v>0.1498239906542373</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02515499016611267</v>
+        <v>0.0276892304841514</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>4</v>
+      </c>
+      <c r="J88" t="n">
+        <v>40</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3356055536.862651</v>
+        <v>3383909572.410198</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1472159940295007</v>
+        <v>0.09664032594825711</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03358603965530334</v>
+        <v>0.02852350804368762</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1885516584.804258</v>
+        <v>1698793049.352758</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08321512785695219</v>
+        <v>0.08943043182324088</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04686543409764811</v>
+        <v>0.03429533632422656</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1816739696.146038</v>
+        <v>1749128689.594862</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1380396922512683</v>
+        <v>0.1271999597273695</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05574455418150805</v>
+        <v>0.0412720858033411</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2671915502.476974</v>
+        <v>2238285092.142026</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09795619305046574</v>
+        <v>0.09960482836125441</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03080275927926672</v>
+        <v>0.03425544652502167</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3540777713.005632</v>
+        <v>4750723463.769416</v>
       </c>
       <c r="F93" t="n">
-        <v>0.112545010230024</v>
+        <v>0.1215593805422234</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0372241149898084</v>
+        <v>0.04988918100014892</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>18</v>
+      </c>
+      <c r="J93" t="n">
+        <v>39</v>
+      </c>
+      <c r="K93" t="n">
+        <v>197.2431845188457</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2235233262.590848</v>
+        <v>1963218170.325498</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1250382567097947</v>
+        <v>0.1484328200209367</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03448219178435771</v>
+        <v>0.03293081586044505</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3796,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2199047767.402836</v>
+        <v>2503781501.134215</v>
       </c>
       <c r="F95" t="n">
-        <v>0.134069519064167</v>
+        <v>0.09774294649292865</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05027999524809371</v>
+        <v>0.03212759707498224</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1554764733.775838</v>
+        <v>2210369404.494178</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09445758194822661</v>
+        <v>0.133654265744592</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0328814885554111</v>
+        <v>0.04085536125858025</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3737821497.673115</v>
+        <v>4954314488.932923</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1760594234759953</v>
+        <v>0.1561003400553845</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02129395448240283</v>
+        <v>0.02428578767124363</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>19</v>
+      </c>
+      <c r="J97" t="n">
+        <v>40</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2737984934.92235</v>
+        <v>3894669528.665657</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1051112314095823</v>
+        <v>0.1035006330711948</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02600715554314153</v>
+        <v>0.02289128389934391</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>9</v>
+      </c>
+      <c r="J98" t="n">
+        <v>40</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2420867623.343801</v>
+        <v>2641380195.320768</v>
       </c>
       <c r="F99" t="n">
-        <v>0.137980049857964</v>
+        <v>0.1049671525847223</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03375906927929284</v>
+        <v>0.02257918775523834</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2997693682.920063</v>
+        <v>4363277597.953967</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1738238278559592</v>
+        <v>0.1723673776067161</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02673104737919856</v>
+        <v>0.02773577808835852</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>18</v>
+      </c>
+      <c r="J100" t="n">
+        <v>40</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2982930752.845037</v>
+        <v>3057147181.840143</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1745600583761223</v>
+        <v>0.1532869205619131</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03674585328902848</v>
+        <v>0.05702934584538216</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>35</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
